--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/FR_DISPATCHRMS_DATASET/3U3I1U3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/FR_DISPATCHRMS_DATASET/3U3I1U3I3I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99D0029-5C3A-4EC9-A097-9D76E1A80958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA408F1-8248-4568-9703-7CB5C01A77CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
